--- a/Design/DataTable/MapGimmickResource.xlsx
+++ b/Design/DataTable/MapGimmickResource.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\백업파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A02C96-7FDD-4DF4-8285-AA6038B93649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0F249-79DE-43E5-A3C5-B990BCDD37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2C83CE8E-C277-412B-AC4E-E8213C8A7264}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C83CE8E-C277-412B-AC4E-E8213C8A7264}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,14 @@
   </si>
   <si>
     <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiningNumMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiningNumMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,11 +156,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,19 +480,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8000AEF2-4B6C-4239-86DA-3A1A36972C9C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" customWidth="1"/>
-    <col min="5" max="6" width="12.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,41 +503,53 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>0.4</v>
@@ -532,17 +557,22 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -551,17 +581,22 @@
         <f>E3*1.8</f>
         <v>18</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>0.2</v>
@@ -570,17 +605,22 @@
         <f>E3*3.3</f>
         <v>33</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
@@ -589,7 +629,12 @@
         <f>E3*5</f>
         <v>50</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/DataTable/MapGimmickResource.xlsx
+++ b/Design/DataTable/MapGimmickResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0F249-79DE-43E5-A3C5-B990BCDD37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7CE10-1B7A-432C-A734-4D3BD3321716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C83CE8E-C277-412B-AC4E-E8213C8A7264}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,11 +102,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MiningNumMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiningNumMax</t>
+    <t>ResourceType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -163,7 +159,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,22 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8000AEF2-4B6C-4239-86DA-3A1A36972C9C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" customWidth="1"/>
     <col min="5" max="5" width="12.296875" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,19 +507,13 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -534,14 +524,8 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -557,14 +541,9 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -581,14 +560,9 @@
         <f>E3*1.8</f>
         <v>18</v>
       </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -605,14 +579,9 @@
         <f>E3*3.3</f>
         <v>33</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -629,12 +598,7 @@
         <f>E3*5</f>
         <v>50</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
